--- a/Code/Results/Cases/Case_6_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_30/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008323712329356</v>
+        <v>1.008323712329355</v>
       </c>
       <c r="D2">
-        <v>1.02338582962613</v>
+        <v>1.023385829626129</v>
       </c>
       <c r="E2">
-        <v>1.021007863539463</v>
+        <v>1.021007863539462</v>
       </c>
       <c r="F2">
         <v>1.027629904901868</v>
@@ -439,16 +439,16 @@
         <v>1.04469561834289</v>
       </c>
       <c r="J2">
-        <v>1.030258281221256</v>
+        <v>1.030258281221255</v>
       </c>
       <c r="K2">
         <v>1.034528700070342</v>
       </c>
       <c r="L2">
-        <v>1.032182082640418</v>
+        <v>1.032182082640417</v>
       </c>
       <c r="M2">
-        <v>1.038717277313577</v>
+        <v>1.038717277313576</v>
       </c>
       <c r="N2">
         <v>1.031721366152885</v>
@@ -462,16 +462,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016580625367817</v>
+        <v>1.016580625367818</v>
       </c>
       <c r="D3">
-        <v>1.029654942130749</v>
+        <v>1.02965494213075</v>
       </c>
       <c r="E3">
-        <v>1.028137104588531</v>
+        <v>1.028137104588532</v>
       </c>
       <c r="F3">
-        <v>1.035140474719709</v>
+        <v>1.03514047471971</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -483,16 +483,16 @@
         <v>1.036629269358451</v>
       </c>
       <c r="K3">
-        <v>1.039921937896938</v>
+        <v>1.039921937896939</v>
       </c>
       <c r="L3">
-        <v>1.038422191826239</v>
+        <v>1.03842219182624</v>
       </c>
       <c r="M3">
-        <v>1.045342634679529</v>
+        <v>1.04534263467953</v>
       </c>
       <c r="N3">
-        <v>1.038101401823979</v>
+        <v>1.03810140182398</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -509,7 +509,7 @@
         <v>1.033583817023526</v>
       </c>
       <c r="E4">
-        <v>1.032609268680468</v>
+        <v>1.032609268680467</v>
       </c>
       <c r="F4">
         <v>1.039852857869439</v>
@@ -521,7 +521,7 @@
         <v>1.048624684113521</v>
       </c>
       <c r="J4">
-        <v>1.04061620536827</v>
+        <v>1.040616205368271</v>
       </c>
       <c r="K4">
         <v>1.043293131429231</v>
@@ -533,7 +533,7 @@
         <v>1.049492958624286</v>
       </c>
       <c r="N4">
-        <v>1.04209399974024</v>
+        <v>1.042093999740241</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023889211474162</v>
+        <v>1.02388921147416</v>
       </c>
       <c r="D5">
-        <v>1.035206688084873</v>
+        <v>1.035206688084871</v>
       </c>
       <c r="E5">
-        <v>1.034457614582959</v>
+        <v>1.034457614582958</v>
       </c>
       <c r="F5">
-        <v>1.041800733011695</v>
+        <v>1.041800733011693</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049243065664296</v>
+        <v>1.049243065664295</v>
       </c>
       <c r="J5">
-        <v>1.04226172882749</v>
+        <v>1.042261728827488</v>
       </c>
       <c r="K5">
-        <v>1.04468355894205</v>
+        <v>1.044683558942048</v>
       </c>
       <c r="L5">
-        <v>1.043942586015729</v>
+        <v>1.043942586015727</v>
       </c>
       <c r="M5">
-        <v>1.051206910394692</v>
+        <v>1.05120691039469</v>
       </c>
       <c r="N5">
-        <v>1.043741860031516</v>
+        <v>1.043741860031514</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -588,10 +588,10 @@
         <v>1.024245705634712</v>
       </c>
       <c r="D6">
-        <v>1.035477532335637</v>
+        <v>1.035477532335638</v>
       </c>
       <c r="E6">
-        <v>1.034766152521413</v>
+        <v>1.034766152521414</v>
       </c>
       <c r="F6">
         <v>1.04212589963761</v>
@@ -609,13 +609,13 @@
         <v>1.044915487966199</v>
       </c>
       <c r="L6">
-        <v>1.044211762984533</v>
+        <v>1.044211762984534</v>
       </c>
       <c r="M6">
         <v>1.051492933448063</v>
       </c>
       <c r="N6">
-        <v>1.044016798002392</v>
+        <v>1.044016798002393</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,16 +626,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021781729443839</v>
+        <v>1.021781729443841</v>
       </c>
       <c r="D7">
         <v>1.033605613002389</v>
       </c>
       <c r="E7">
-        <v>1.032634088636979</v>
+        <v>1.03263408863698</v>
       </c>
       <c r="F7">
-        <v>1.039879013342866</v>
+        <v>1.039879013342868</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -644,19 +644,19 @@
         <v>1.048633002590872</v>
       </c>
       <c r="J7">
-        <v>1.040638310775878</v>
+        <v>1.040638310775879</v>
       </c>
       <c r="K7">
-        <v>1.043311813813134</v>
+        <v>1.043311813813135</v>
       </c>
       <c r="L7">
-        <v>1.042351103977544</v>
+        <v>1.042351103977545</v>
       </c>
       <c r="M7">
-        <v>1.04951597935918</v>
+        <v>1.049515979359182</v>
       </c>
       <c r="N7">
-        <v>1.042116136540062</v>
+        <v>1.042116136540064</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -708,16 +708,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9909886321958995</v>
+        <v>0.9909886321958983</v>
       </c>
       <c r="D9">
-        <v>1.010240382590645</v>
+        <v>1.010240382590644</v>
       </c>
       <c r="E9">
-        <v>1.006080586228586</v>
+        <v>1.006080586228585</v>
       </c>
       <c r="F9">
-        <v>1.011909708239476</v>
+        <v>1.011909708239475</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -726,19 +726,19 @@
         <v>1.039535814438004</v>
       </c>
       <c r="J9">
-        <v>1.016863668007298</v>
+        <v>1.016863668007297</v>
       </c>
       <c r="K9">
-        <v>1.023169473196013</v>
+        <v>1.023169473196012</v>
       </c>
       <c r="L9">
-        <v>1.019075774533805</v>
+        <v>1.019075774533804</v>
       </c>
       <c r="M9">
-        <v>1.024812469395163</v>
+        <v>1.024812469395161</v>
       </c>
       <c r="N9">
-        <v>1.018307731051761</v>
+        <v>1.01830773105176</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,16 +749,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9763854806327661</v>
+        <v>0.9763854806327656</v>
       </c>
       <c r="D10">
-        <v>0.9991905629220642</v>
+        <v>0.9991905629220637</v>
       </c>
       <c r="E10">
-        <v>0.9935496546189796</v>
+        <v>0.9935496546189792</v>
       </c>
       <c r="F10">
-        <v>0.9987178683906153</v>
+        <v>0.998717868390615</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -790,16 +790,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9697326908696812</v>
+        <v>0.9697326908696815</v>
       </c>
       <c r="D11">
-        <v>0.9941656392044185</v>
+        <v>0.9941656392044187</v>
       </c>
       <c r="E11">
-        <v>0.9878547169296945</v>
+        <v>0.9878547169296946</v>
       </c>
       <c r="F11">
-        <v>0.9927237391229404</v>
+        <v>0.9927237391229405</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -817,7 +817,7 @@
         <v>1.003009368577286</v>
       </c>
       <c r="M11">
-        <v>1.007784192102949</v>
+        <v>1.00778419210295</v>
       </c>
       <c r="N11">
         <v>1.001841892578454</v>
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9672065813541427</v>
+        <v>0.9672065813541415</v>
       </c>
       <c r="D12">
-        <v>0.9922592978670776</v>
+        <v>0.9922592978670767</v>
       </c>
       <c r="E12">
-        <v>0.9856946303354819</v>
+        <v>0.9856946303354808</v>
       </c>
       <c r="F12">
-        <v>0.9904503389835874</v>
+        <v>0.9904503389835863</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032339829345625</v>
+        <v>1.032339829345624</v>
       </c>
       <c r="J12">
-        <v>0.9984667141540416</v>
+        <v>0.9984667141540404</v>
       </c>
       <c r="K12">
-        <v>1.007536315431582</v>
+        <v>1.007536315431581</v>
       </c>
       <c r="L12">
-        <v>1.001101128161911</v>
+        <v>1.001101128161909</v>
       </c>
       <c r="M12">
-        <v>1.005762811225682</v>
+        <v>1.005762811225681</v>
       </c>
       <c r="N12">
-        <v>0.9998846514138732</v>
+        <v>0.9998846514138718</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -875,10 +875,10 @@
         <v>0.9677510247748397</v>
       </c>
       <c r="D13">
-        <v>0.9926700850047103</v>
+        <v>0.9926700850047102</v>
       </c>
       <c r="E13">
-        <v>0.9861600771854766</v>
+        <v>0.9861600771854767</v>
       </c>
       <c r="F13">
         <v>0.9909401946388734</v>
@@ -887,10 +887,10 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032505732775868</v>
+        <v>1.032505732775867</v>
       </c>
       <c r="J13">
-        <v>0.9988879517415543</v>
+        <v>0.9988879517415541</v>
       </c>
       <c r="K13">
         <v>1.007894563943311</v>
@@ -902,7 +902,7 @@
         <v>1.006198424054077</v>
       </c>
       <c r="N13">
-        <v>1.000306487207077</v>
+        <v>1.000306487207076</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9695250377849585</v>
+        <v>0.9695250377849572</v>
       </c>
       <c r="D14">
-        <v>0.9940088973751399</v>
+        <v>0.9940088973751393</v>
       </c>
       <c r="E14">
-        <v>0.9876771034034391</v>
+        <v>0.9876771034034383</v>
       </c>
       <c r="F14">
-        <v>0.9925368049700926</v>
+        <v>0.9925368049700921</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03304598642645</v>
+        <v>1.033045986426449</v>
       </c>
       <c r="J14">
-        <v>1.000260516989449</v>
+        <v>1.000260516989448</v>
       </c>
       <c r="K14">
-        <v>1.009061806983264</v>
+        <v>1.009061806983263</v>
       </c>
       <c r="L14">
-        <v>1.002852493798846</v>
+        <v>1.002852493798845</v>
       </c>
       <c r="M14">
         <v>1.007618007797619</v>
       </c>
       <c r="N14">
-        <v>1.001681001655059</v>
+        <v>1.001681001655058</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9706106043628494</v>
+        <v>0.9706106043628511</v>
       </c>
       <c r="D15">
-        <v>0.9948283797066402</v>
+        <v>0.9948283797066414</v>
       </c>
       <c r="E15">
-        <v>0.9886057252022447</v>
+        <v>0.9886057252022462</v>
       </c>
       <c r="F15">
-        <v>0.9935141649125283</v>
+        <v>0.9935141649125298</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033376330485154</v>
+        <v>1.033376330485155</v>
       </c>
       <c r="J15">
-        <v>1.001100427726723</v>
+        <v>1.001100427726724</v>
       </c>
       <c r="K15">
-        <v>1.009776014582138</v>
+        <v>1.009776014582139</v>
       </c>
       <c r="L15">
-        <v>1.003672625322353</v>
+        <v>1.003672625322354</v>
       </c>
       <c r="M15">
-        <v>1.008486825612966</v>
+        <v>1.008486825612967</v>
       </c>
       <c r="N15">
-        <v>1.002522105161919</v>
+        <v>1.00252210516192</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9768196143715419</v>
+        <v>0.9768196143715401</v>
       </c>
       <c r="D16">
-        <v>0.9995186796784958</v>
+        <v>0.9995186796784943</v>
       </c>
       <c r="E16">
-        <v>0.9939215875929449</v>
+        <v>0.9939215875929429</v>
       </c>
       <c r="F16">
-        <v>0.9991093650667564</v>
+        <v>0.9991093650667547</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035261854552562</v>
+        <v>1.035261854552561</v>
       </c>
       <c r="J16">
-        <v>1.00590425958936</v>
+        <v>1.005904259589359</v>
       </c>
       <c r="K16">
-        <v>1.013859926637216</v>
+        <v>1.013859926637214</v>
       </c>
       <c r="L16">
-        <v>1.008364460504874</v>
+        <v>1.008364460504872</v>
       </c>
       <c r="M16">
-        <v>1.013457993752837</v>
+        <v>1.013457993752835</v>
       </c>
       <c r="N16">
-        <v>1.007332759016808</v>
+        <v>1.007332759016806</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9806225374988676</v>
+        <v>0.9806225374988653</v>
       </c>
       <c r="D17">
-        <v>1.002393966128179</v>
+        <v>1.002393966128178</v>
       </c>
       <c r="E17">
-        <v>0.9971812227004054</v>
+        <v>0.9971812227004038</v>
       </c>
       <c r="F17">
-        <v>1.002540588400809</v>
+        <v>1.002540588400807</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03641316379747</v>
+        <v>1.036413163797469</v>
       </c>
       <c r="J17">
-        <v>1.008846282751267</v>
+        <v>1.008846282751264</v>
       </c>
       <c r="K17">
-        <v>1.016360150245503</v>
+        <v>1.016360150245502</v>
       </c>
       <c r="L17">
-        <v>1.011238856464354</v>
+        <v>1.011238856464352</v>
       </c>
       <c r="M17">
-        <v>1.016504218057233</v>
+        <v>1.016504218057232</v>
       </c>
       <c r="N17">
-        <v>1.010278960189059</v>
+        <v>1.010278960189057</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,16 +1077,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9828093332229388</v>
+        <v>0.9828093332229373</v>
       </c>
       <c r="D18">
-        <v>1.00404817032508</v>
+        <v>1.004048170325078</v>
       </c>
       <c r="E18">
-        <v>0.9990568858118751</v>
+        <v>0.9990568858118741</v>
       </c>
       <c r="F18">
-        <v>1.00451509724327</v>
+        <v>1.004515097243269</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1095,19 +1095,19 @@
         <v>1.037073881006521</v>
       </c>
       <c r="J18">
-        <v>1.010537892253891</v>
+        <v>1.01053789225389</v>
       </c>
       <c r="K18">
-        <v>1.017797391032003</v>
+        <v>1.017797391032002</v>
       </c>
       <c r="L18">
-        <v>1.012891918516966</v>
+        <v>1.012891918516965</v>
       </c>
       <c r="M18">
-        <v>1.018256346712484</v>
+        <v>1.018256346712483</v>
       </c>
       <c r="N18">
-        <v>1.011972971971208</v>
+        <v>1.011972971971207</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,22 +1118,22 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9835498031478701</v>
+        <v>0.98354980314787</v>
       </c>
       <c r="D19">
         <v>1.004608432004329</v>
       </c>
       <c r="E19">
-        <v>0.9996922127352623</v>
+        <v>0.9996922127352621</v>
       </c>
       <c r="F19">
-        <v>1.005183924192484</v>
+        <v>1.005183924192483</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037297378084106</v>
+        <v>1.037297378084105</v>
       </c>
       <c r="J19">
         <v>1.011110658433602</v>
@@ -1145,7 +1145,7 @@
         <v>1.013451689135118</v>
       </c>
       <c r="M19">
-        <v>1.018849705773499</v>
+        <v>1.018849705773498</v>
       </c>
       <c r="N19">
         <v>1.012546551544591</v>
@@ -1159,16 +1159,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9802178029419967</v>
+        <v>0.9802178029419978</v>
       </c>
       <c r="D20">
-        <v>1.002087869346151</v>
+        <v>1.002087869346152</v>
       </c>
       <c r="E20">
-        <v>0.9968341746120609</v>
+        <v>0.996834174612062</v>
       </c>
       <c r="F20">
-        <v>1.002175260173159</v>
+        <v>1.00217526017316</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1177,19 +1177,19 @@
         <v>1.036290769479923</v>
       </c>
       <c r="J20">
-        <v>1.008533185081293</v>
+        <v>1.008533185081294</v>
       </c>
       <c r="K20">
-        <v>1.016094105170911</v>
+        <v>1.016094105170912</v>
       </c>
       <c r="L20">
-        <v>1.010932920604996</v>
+        <v>1.010932920604997</v>
       </c>
       <c r="M20">
-        <v>1.016179967791476</v>
+        <v>1.016179967791477</v>
       </c>
       <c r="N20">
-        <v>1.009965417884481</v>
+        <v>1.009965417884483</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,16 +1200,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9690042006419931</v>
+        <v>0.9690042006419919</v>
       </c>
       <c r="D21">
-        <v>0.9936157839336496</v>
+        <v>0.9936157839336488</v>
       </c>
       <c r="E21">
-        <v>0.98723164989097</v>
+        <v>0.9872316498909688</v>
       </c>
       <c r="F21">
-        <v>0.9920679780934001</v>
+        <v>0.9920679780933988</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1218,19 +1218,19 @@
         <v>1.032887424277375</v>
       </c>
       <c r="J21">
-        <v>0.9998575414134657</v>
+        <v>0.9998575414134647</v>
       </c>
       <c r="K21">
-        <v>1.0087191251567</v>
+        <v>1.008719125156699</v>
       </c>
       <c r="L21">
-        <v>1.002459028642377</v>
+        <v>1.002459028642376</v>
       </c>
       <c r="M21">
-        <v>1.007201199579008</v>
+        <v>1.007201199579007</v>
       </c>
       <c r="N21">
-        <v>1.001277453807536</v>
+        <v>1.001277453807535</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,19 +1238,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.961632377731879</v>
+        <v>0.9616323777318799</v>
       </c>
       <c r="D22">
-        <v>0.9880561193079548</v>
+        <v>0.9880561193079553</v>
       </c>
       <c r="E22">
-        <v>0.9809326961090485</v>
+        <v>0.9809326961090493</v>
       </c>
       <c r="F22">
-        <v>0.9854389095648428</v>
+        <v>0.9854389095648439</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1259,19 +1259,19 @@
         <v>1.030638699851852</v>
       </c>
       <c r="J22">
-        <v>0.9941540701036226</v>
+        <v>0.9941540701036233</v>
       </c>
       <c r="K22">
         <v>1.00386795904164</v>
       </c>
       <c r="L22">
-        <v>0.9968915854957044</v>
+        <v>0.9968915854957052</v>
       </c>
       <c r="M22">
-        <v>1.001304450618828</v>
+        <v>1.001304450618829</v>
       </c>
       <c r="N22">
-        <v>0.9955658829142352</v>
+        <v>0.9955658829142362</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,16 +1282,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9655728398993364</v>
+        <v>0.9655728398993372</v>
       </c>
       <c r="D23">
-        <v>0.9910268939155956</v>
+        <v>0.9910268939155962</v>
       </c>
       <c r="E23">
-        <v>0.9842982992287458</v>
+        <v>0.9842982992287466</v>
       </c>
       <c r="F23">
-        <v>0.9889808063047085</v>
+        <v>0.9889808063047092</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1300,19 +1300,19 @@
         <v>1.03184171985598</v>
       </c>
       <c r="J23">
-        <v>0.997202692835552</v>
+        <v>0.9972026928355527</v>
       </c>
       <c r="K23">
-        <v>1.006461242689801</v>
+        <v>1.006461242689802</v>
       </c>
       <c r="L23">
-        <v>0.999867168966089</v>
+        <v>0.9998671689660897</v>
       </c>
       <c r="M23">
         <v>1.004455806701923</v>
       </c>
       <c r="N23">
-        <v>0.9986188350401263</v>
+        <v>0.9986188350401268</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,13 +1323,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.980400781652664</v>
+        <v>0.9804007816526644</v>
       </c>
       <c r="D24">
-        <v>1.00222625180168</v>
+        <v>1.002226251801681</v>
       </c>
       <c r="E24">
-        <v>0.9969910695801948</v>
+        <v>0.9969910695801955</v>
       </c>
       <c r="F24">
         <v>1.002340418960957</v>
@@ -1338,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036346107527554</v>
+        <v>1.036346107527555</v>
       </c>
       <c r="J24">
         <v>1.00867473561526</v>
@@ -1347,10 +1347,10 @@
         <v>1.016214384433208</v>
       </c>
       <c r="L24">
-        <v>1.011071232260155</v>
+        <v>1.011071232260156</v>
       </c>
       <c r="M24">
-        <v>1.016326558502004</v>
+        <v>1.016326558502005</v>
       </c>
       <c r="N24">
         <v>1.010107169436443</v>
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.99638955310361</v>
+        <v>0.9963895531036079</v>
       </c>
       <c r="D25">
-        <v>1.014333115679532</v>
+        <v>1.014333115679531</v>
       </c>
       <c r="E25">
-        <v>1.010725378675281</v>
+        <v>1.010725378675279</v>
       </c>
       <c r="F25">
-        <v>1.016800505323743</v>
+        <v>1.016800505323741</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041152545466641</v>
+        <v>1.04115254546664</v>
       </c>
       <c r="J25">
-        <v>1.021039037113777</v>
+        <v>1.021039037113775</v>
       </c>
       <c r="K25">
-        <v>1.02671292971497</v>
+        <v>1.026712929714968</v>
       </c>
       <c r="L25">
-        <v>1.02315944764791</v>
+        <v>1.023159447647909</v>
       </c>
       <c r="M25">
-        <v>1.029143495433652</v>
+        <v>1.02914349543365</v>
       </c>
       <c r="N25">
-        <v>1.022489029661293</v>
+        <v>1.022489029661291</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_30/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008323712329355</v>
+        <v>1.004834867060664</v>
       </c>
       <c r="D2">
-        <v>1.023385829626129</v>
+        <v>1.023092951351381</v>
       </c>
       <c r="E2">
-        <v>1.021007863539462</v>
+        <v>1.018680205256318</v>
       </c>
       <c r="F2">
-        <v>1.027629904901868</v>
+        <v>1.02542724073966</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04469561834289</v>
+        <v>1.045061984953058</v>
       </c>
       <c r="J2">
-        <v>1.030258281221255</v>
+        <v>1.026871923515933</v>
       </c>
       <c r="K2">
-        <v>1.034528700070342</v>
+        <v>1.034239672936065</v>
       </c>
       <c r="L2">
-        <v>1.032182082640417</v>
+        <v>1.029885287721717</v>
       </c>
       <c r="M2">
-        <v>1.038717277313576</v>
+        <v>1.03654334464595</v>
       </c>
       <c r="N2">
-        <v>1.031721366152885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012437058523689</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.0352806510711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016580625367818</v>
+        <v>1.009698296546437</v>
       </c>
       <c r="D3">
-        <v>1.02965494213075</v>
+        <v>1.026265258523746</v>
       </c>
       <c r="E3">
-        <v>1.028137104588532</v>
+        <v>1.02278732877111</v>
       </c>
       <c r="F3">
-        <v>1.03514047471971</v>
+        <v>1.029937394935439</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047119504601863</v>
+        <v>1.046069909166171</v>
       </c>
       <c r="J3">
-        <v>1.036629269358451</v>
+        <v>1.029928023001844</v>
       </c>
       <c r="K3">
-        <v>1.039921937896939</v>
+        <v>1.036572748164442</v>
       </c>
       <c r="L3">
-        <v>1.03842219182624</v>
+        <v>1.033136712889628</v>
       </c>
       <c r="M3">
-        <v>1.04534263467953</v>
+        <v>1.040201031372291</v>
       </c>
       <c r="N3">
-        <v>1.03810140182398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013498987691049</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036927679425168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021753038369157</v>
+        <v>1.012781471275406</v>
       </c>
       <c r="D4">
-        <v>1.033583817023526</v>
+        <v>1.028279963664572</v>
       </c>
       <c r="E4">
-        <v>1.032609268680467</v>
+        <v>1.025397034411884</v>
       </c>
       <c r="F4">
-        <v>1.039852857869439</v>
+        <v>1.032802794446779</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048624684113521</v>
+        <v>1.046699057676902</v>
       </c>
       <c r="J4">
-        <v>1.040616205368271</v>
+        <v>1.031863781881453</v>
       </c>
       <c r="K4">
-        <v>1.043293131429231</v>
+        <v>1.038048647195377</v>
       </c>
       <c r="L4">
-        <v>1.042329435495224</v>
+        <v>1.035198305842183</v>
       </c>
       <c r="M4">
-        <v>1.049492958624286</v>
+        <v>1.042520804185453</v>
       </c>
       <c r="N4">
-        <v>1.042093999740241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014171183925957</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037972174349498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02388921147416</v>
+        <v>1.014067703878046</v>
       </c>
       <c r="D5">
-        <v>1.035206688084871</v>
+        <v>1.029123559161227</v>
       </c>
       <c r="E5">
-        <v>1.034457614582958</v>
+        <v>1.02648753142931</v>
       </c>
       <c r="F5">
-        <v>1.041800733011693</v>
+        <v>1.033999590103668</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049243065664295</v>
+        <v>1.04696080215401</v>
       </c>
       <c r="J5">
-        <v>1.042261728827488</v>
+        <v>1.032672558740967</v>
       </c>
       <c r="K5">
-        <v>1.044683558942048</v>
+        <v>1.038666632426907</v>
       </c>
       <c r="L5">
-        <v>1.043942586015727</v>
+        <v>1.036059591895809</v>
       </c>
       <c r="M5">
-        <v>1.05120691039469</v>
+        <v>1.04348952176328</v>
       </c>
       <c r="N5">
-        <v>1.043741860031514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014452503272538</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.038416331164258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024245705634712</v>
+        <v>1.014288612812446</v>
       </c>
       <c r="D6">
-        <v>1.035477532335638</v>
+        <v>1.029271280781257</v>
       </c>
       <c r="E6">
-        <v>1.034766152521414</v>
+        <v>1.02667537970906</v>
       </c>
       <c r="F6">
-        <v>1.04212589963761</v>
+        <v>1.034205188593449</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04934607083132</v>
+        <v>1.047007660973204</v>
       </c>
       <c r="J6">
-        <v>1.0425362769086</v>
+        <v>1.032813451584368</v>
       </c>
       <c r="K6">
-        <v>1.044915487966199</v>
+        <v>1.038776456607211</v>
       </c>
       <c r="L6">
-        <v>1.044211762984534</v>
+        <v>1.036208967909939</v>
       </c>
       <c r="M6">
-        <v>1.051492933448063</v>
+        <v>1.043656844436238</v>
       </c>
       <c r="N6">
-        <v>1.044016798002393</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014502212805733</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.038502748910437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021781729443841</v>
+        <v>1.012814339366625</v>
       </c>
       <c r="D7">
-        <v>1.033605613002389</v>
+        <v>1.028308995496</v>
       </c>
       <c r="E7">
-        <v>1.03263408863698</v>
+        <v>1.025426191346804</v>
       </c>
       <c r="F7">
-        <v>1.039879013342868</v>
+        <v>1.03283329306148</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048633002590872</v>
+        <v>1.046711268062995</v>
       </c>
       <c r="J7">
-        <v>1.040638310775879</v>
+        <v>1.031889864645521</v>
       </c>
       <c r="K7">
-        <v>1.043311813813135</v>
+        <v>1.03807446107444</v>
       </c>
       <c r="L7">
-        <v>1.042351103977545</v>
+        <v>1.035224230261188</v>
       </c>
       <c r="M7">
-        <v>1.049515979359182</v>
+        <v>1.042548088916619</v>
       </c>
       <c r="N7">
-        <v>1.042116136540064</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014182193801473</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.038010586621521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011151014553694</v>
+        <v>1.006511821668742</v>
       </c>
       <c r="D8">
-        <v>1.025532033574417</v>
+        <v>1.024195317931848</v>
       </c>
       <c r="E8">
-        <v>1.02344766010618</v>
+        <v>1.020096841599267</v>
       </c>
       <c r="F8">
-        <v>1.030199989977774</v>
+        <v>1.026981061464208</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045528345114646</v>
+        <v>1.045418421189195</v>
       </c>
       <c r="J8">
-        <v>1.032440621369582</v>
+        <v>1.027932801477546</v>
       </c>
       <c r="K8">
-        <v>1.03637691640802</v>
+        <v>1.035057226232539</v>
       </c>
       <c r="L8">
-        <v>1.034319115402114</v>
+        <v>1.03101129917778</v>
       </c>
       <c r="M8">
-        <v>1.040985850310321</v>
+        <v>1.037807550833246</v>
       </c>
       <c r="N8">
-        <v>1.033906805474521</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01280833857837</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.035881732406534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9909886321958983</v>
+        <v>0.9948640995357529</v>
       </c>
       <c r="D9">
-        <v>1.010240382590644</v>
+        <v>1.016612687330563</v>
       </c>
       <c r="E9">
-        <v>1.006080586228585</v>
+        <v>1.010295472102155</v>
       </c>
       <c r="F9">
-        <v>1.011909708239475</v>
+        <v>1.016217079291261</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039535814438004</v>
+        <v>1.042943872661306</v>
       </c>
       <c r="J9">
-        <v>1.016863668007297</v>
+        <v>1.020599532424475</v>
       </c>
       <c r="K9">
-        <v>1.023169473196012</v>
+        <v>1.029441864964512</v>
       </c>
       <c r="L9">
-        <v>1.019075774533804</v>
+        <v>1.023223692030325</v>
       </c>
       <c r="M9">
-        <v>1.024812469395161</v>
+        <v>1.02905241313442</v>
       </c>
       <c r="N9">
-        <v>1.01830773105176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010255777342667</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.031908055116991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9763854806327656</v>
+        <v>0.9867155354447024</v>
       </c>
       <c r="D10">
-        <v>0.9991905629220637</v>
+        <v>1.011337035469097</v>
       </c>
       <c r="E10">
-        <v>0.9935496546189792</v>
+        <v>1.003476765026869</v>
       </c>
       <c r="F10">
-        <v>0.998717868390615</v>
+        <v>1.008725277524791</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035130245656079</v>
+        <v>1.041165959775775</v>
       </c>
       <c r="J10">
-        <v>1.005568388595808</v>
+        <v>1.015466318766635</v>
       </c>
       <c r="K10">
-        <v>1.013574447400868</v>
+        <v>1.025504569409107</v>
       </c>
       <c r="L10">
-        <v>1.008036356948648</v>
+        <v>1.017783527873599</v>
       </c>
       <c r="M10">
-        <v>1.013110310770708</v>
+        <v>1.022938761384076</v>
       </c>
       <c r="N10">
-        <v>1.00699641104792</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008468294475485</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.029141028635845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9697326908696815</v>
+        <v>0.9831061208615444</v>
       </c>
       <c r="D11">
-        <v>0.9941656392044187</v>
+        <v>1.009016903334384</v>
       </c>
       <c r="E11">
-        <v>0.9878547169296946</v>
+        <v>1.000468391612923</v>
       </c>
       <c r="F11">
-        <v>0.9927237391229405</v>
+        <v>1.005417062600325</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03310919142824</v>
+        <v>1.04037451529121</v>
       </c>
       <c r="J11">
-        <v>1.000421179753291</v>
+        <v>1.013198993704514</v>
       </c>
       <c r="K11">
-        <v>1.009198428194858</v>
+        <v>1.023770754129997</v>
       </c>
       <c r="L11">
-        <v>1.003009368577286</v>
+        <v>1.015381480156748</v>
       </c>
       <c r="M11">
-        <v>1.00778419210295</v>
+        <v>1.02023753903596</v>
       </c>
       <c r="N11">
-        <v>1.001841892578454</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007681620647228</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.027948261043676</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9672065813541415</v>
+        <v>0.9817375168270923</v>
       </c>
       <c r="D12">
-        <v>0.9922592978670767</v>
+        <v>1.008133138189298</v>
       </c>
       <c r="E12">
-        <v>0.9856946303354808</v>
+        <v>0.9993280240256174</v>
       </c>
       <c r="F12">
-        <v>0.9904503389835863</v>
+        <v>1.00416405447263</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032339829345624</v>
+        <v>1.040069025562539</v>
       </c>
       <c r="J12">
-        <v>0.9984667141540404</v>
+        <v>1.012335404901029</v>
       </c>
       <c r="K12">
-        <v>1.007536315431581</v>
+        <v>1.023106161474595</v>
       </c>
       <c r="L12">
-        <v>1.001101128161909</v>
+        <v>1.014468109367939</v>
       </c>
       <c r="M12">
-        <v>1.005762811225681</v>
+        <v>1.019211910240889</v>
       </c>
       <c r="N12">
-        <v>0.9998846514138718</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007380294528804</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.027478363898897</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9677510247748397</v>
+        <v>0.9820295250008148</v>
       </c>
       <c r="D13">
-        <v>0.9926700850047102</v>
+        <v>1.008320623733365</v>
       </c>
       <c r="E13">
-        <v>0.9861600771854767</v>
+        <v>0.999571020389855</v>
       </c>
       <c r="F13">
-        <v>0.9909401946388734</v>
+        <v>1.004431284907336</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032505732775867</v>
+        <v>1.040133530687159</v>
       </c>
       <c r="J13">
-        <v>0.9988879517415541</v>
+        <v>1.012518908955855</v>
       </c>
       <c r="K13">
-        <v>1.007894563943311</v>
+        <v>1.023246626694008</v>
       </c>
       <c r="L13">
-        <v>1.00151237650973</v>
+        <v>1.01466238203581</v>
       </c>
       <c r="M13">
-        <v>1.006198424054077</v>
+        <v>1.019430327691975</v>
       </c>
       <c r="N13">
-        <v>1.000306487207076</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007443992764501</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.027575161402292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9695250377849572</v>
+        <v>0.9829923438249654</v>
       </c>
       <c r="D14">
-        <v>0.9940088973751393</v>
+        <v>1.008942971684161</v>
       </c>
       <c r="E14">
-        <v>0.9876771034034383</v>
+        <v>1.000373453109933</v>
       </c>
       <c r="F14">
-        <v>0.9925368049700921</v>
+        <v>1.005312845443716</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033045986426449</v>
+        <v>1.040348832766138</v>
       </c>
       <c r="J14">
-        <v>1.000260516989448</v>
+        <v>1.013126879169566</v>
       </c>
       <c r="K14">
-        <v>1.009061806983263</v>
+        <v>1.023714934873299</v>
       </c>
       <c r="L14">
-        <v>1.002852493798845</v>
+        <v>1.015305289707355</v>
       </c>
       <c r="M14">
-        <v>1.007618007797619</v>
+        <v>1.020152098333007</v>
       </c>
       <c r="N14">
-        <v>1.001681001655058</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007656317812998</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.027907715896411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9706106043628511</v>
+        <v>0.9835879486626171</v>
       </c>
       <c r="D15">
-        <v>0.9948283797066414</v>
+        <v>1.009330148056444</v>
       </c>
       <c r="E15">
-        <v>0.9886057252022462</v>
+        <v>1.00087052893327</v>
       </c>
       <c r="F15">
-        <v>0.9935141649125298</v>
+        <v>1.005858474287495</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033376330485155</v>
+        <v>1.040483288433835</v>
       </c>
       <c r="J15">
-        <v>1.001100427726724</v>
+        <v>1.013504463833623</v>
       </c>
       <c r="K15">
-        <v>1.009776014582139</v>
+        <v>1.024007268443595</v>
       </c>
       <c r="L15">
-        <v>1.003672625322354</v>
+        <v>1.015704210585327</v>
       </c>
       <c r="M15">
-        <v>1.008486825612967</v>
+        <v>1.020599429275944</v>
       </c>
       <c r="N15">
-        <v>1.00252210516192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007788831949356</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.028120337852654</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9768196143715401</v>
+        <v>0.9869920103905101</v>
       </c>
       <c r="D16">
-        <v>0.9995186796784943</v>
+        <v>1.011532529763786</v>
       </c>
       <c r="E16">
-        <v>0.9939215875929429</v>
+        <v>1.003711490298125</v>
       </c>
       <c r="F16">
-        <v>0.9991093650667547</v>
+        <v>1.008979524862694</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035261854552561</v>
+        <v>1.041239177248752</v>
       </c>
       <c r="J16">
-        <v>1.005904259589359</v>
+        <v>1.015652932922287</v>
       </c>
       <c r="K16">
-        <v>1.013859926637214</v>
+        <v>1.025660561105605</v>
       </c>
       <c r="L16">
-        <v>1.008364460504872</v>
+        <v>1.017977572685055</v>
       </c>
       <c r="M16">
-        <v>1.013457993752835</v>
+        <v>1.0231523149356</v>
       </c>
       <c r="N16">
-        <v>1.007332759016806</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008538627212344</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.029292485076045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9806225374988653</v>
+        <v>0.9890989319257608</v>
       </c>
       <c r="D17">
-        <v>1.002393966128178</v>
+        <v>1.012897638336913</v>
       </c>
       <c r="E17">
-        <v>0.9971812227004038</v>
+        <v>1.005472497858045</v>
       </c>
       <c r="F17">
-        <v>1.002540588400807</v>
+        <v>1.010913953571508</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036413163797469</v>
+        <v>1.041704144820114</v>
       </c>
       <c r="J17">
-        <v>1.008846282751264</v>
+        <v>1.016982564986894</v>
       </c>
       <c r="K17">
-        <v>1.016360150245502</v>
+        <v>1.026683242271841</v>
       </c>
       <c r="L17">
-        <v>1.011238856464352</v>
+        <v>1.01938524994999</v>
       </c>
       <c r="M17">
-        <v>1.016504218057232</v>
+        <v>1.02473328998801</v>
       </c>
       <c r="N17">
-        <v>1.010278960189057</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009002562293539</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.030018173819885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9828093332229373</v>
+        <v>0.9903060009081195</v>
       </c>
       <c r="D18">
-        <v>1.004048170325078</v>
+        <v>1.013675016463426</v>
       </c>
       <c r="E18">
-        <v>0.9990568858118741</v>
+        <v>1.006481093057632</v>
       </c>
       <c r="F18">
-        <v>1.004515097243269</v>
+        <v>1.012022971091097</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037073881006521</v>
+        <v>1.04196555798839</v>
       </c>
       <c r="J18">
-        <v>1.01053789225389</v>
+        <v>1.017740305349753</v>
       </c>
       <c r="K18">
-        <v>1.017797391032002</v>
+        <v>1.027261803663854</v>
       </c>
       <c r="L18">
-        <v>1.012891918516965</v>
+        <v>1.020188884362104</v>
       </c>
       <c r="M18">
-        <v>1.018256346712483</v>
+        <v>1.025637350109294</v>
       </c>
       <c r="N18">
-        <v>1.011972971971207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009265246316193</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.030415507242767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.98354980314787</v>
+        <v>0.9907251646812705</v>
       </c>
       <c r="D19">
-        <v>1.004608432004329</v>
+        <v>1.013949260522201</v>
       </c>
       <c r="E19">
-        <v>0.9996922127352621</v>
+        <v>1.006832427474633</v>
       </c>
       <c r="F19">
-        <v>1.005183924192483</v>
+        <v>1.012408366680956</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037297378084105</v>
+        <v>1.042059212394619</v>
       </c>
       <c r="J19">
-        <v>1.011110658433602</v>
+        <v>1.018006495755546</v>
       </c>
       <c r="K19">
-        <v>1.018283970111387</v>
+        <v>1.027468202539601</v>
       </c>
       <c r="L19">
-        <v>1.013451689135118</v>
+        <v>1.020470341022647</v>
       </c>
       <c r="M19">
-        <v>1.018849705773498</v>
+        <v>1.025952884986149</v>
       </c>
       <c r="N19">
-        <v>1.012546551544591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009358828840559</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.030567883898384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9802178029419978</v>
+        <v>0.988872979571856</v>
       </c>
       <c r="D20">
-        <v>1.002087869346152</v>
+        <v>1.012750752134592</v>
       </c>
       <c r="E20">
-        <v>0.996834174612062</v>
+        <v>1.005283451861129</v>
       </c>
       <c r="F20">
-        <v>1.00217526017316</v>
+        <v>1.010706388559535</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036290769479923</v>
+        <v>1.041654084854528</v>
       </c>
       <c r="J20">
-        <v>1.008533185081294</v>
+        <v>1.016839671642049</v>
       </c>
       <c r="K20">
-        <v>1.016094105170912</v>
+        <v>1.026573040052517</v>
       </c>
       <c r="L20">
-        <v>1.010932920604997</v>
+        <v>1.019234030015447</v>
       </c>
       <c r="M20">
-        <v>1.016179967791477</v>
+        <v>1.024563555709441</v>
       </c>
       <c r="N20">
-        <v>1.009965417884483</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008952576762255</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.029938909687964</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9690042006419919</v>
+        <v>0.9827222973995435</v>
       </c>
       <c r="D21">
-        <v>0.9936157839336488</v>
+        <v>1.008774112144785</v>
       </c>
       <c r="E21">
-        <v>0.9872316498909688</v>
+        <v>1.000149711907129</v>
       </c>
       <c r="F21">
-        <v>0.9920679780933988</v>
+        <v>1.005065777475254</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032887424277375</v>
+        <v>1.040292669962571</v>
       </c>
       <c r="J21">
-        <v>0.9998575414134647</v>
+        <v>1.012960584711863</v>
       </c>
       <c r="K21">
-        <v>1.008719125156699</v>
+        <v>1.023591141349391</v>
       </c>
       <c r="L21">
-        <v>1.002459028642376</v>
+        <v>1.015128248505787</v>
       </c>
       <c r="M21">
-        <v>1.007201199579007</v>
+        <v>1.019951808537083</v>
       </c>
       <c r="N21">
-        <v>1.001277453807535</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007600099904632</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.027833833611169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9616323777318799</v>
+        <v>0.9787428317256732</v>
       </c>
       <c r="D22">
-        <v>0.9880561193079553</v>
+        <v>1.006200940277221</v>
       </c>
       <c r="E22">
-        <v>0.9809326961090493</v>
+        <v>0.9968355102973719</v>
       </c>
       <c r="F22">
-        <v>0.9854389095648439</v>
+        <v>1.001425264347645</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030638699851852</v>
+        <v>1.039397184972445</v>
       </c>
       <c r="J22">
-        <v>0.9941540701036233</v>
+        <v>1.010445230599681</v>
       </c>
       <c r="K22">
-        <v>1.00386795904164</v>
+        <v>1.021650548145885</v>
       </c>
       <c r="L22">
-        <v>0.9968915854957052</v>
+        <v>1.012469918089685</v>
       </c>
       <c r="M22">
-        <v>1.001304450618829</v>
+        <v>1.016968539250387</v>
       </c>
       <c r="N22">
-        <v>0.9955658829142362</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006720474700243</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.026448096704204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9655728398993372</v>
+        <v>0.9808462331826718</v>
       </c>
       <c r="D23">
-        <v>0.9910268939155962</v>
+        <v>1.007553485209619</v>
       </c>
       <c r="E23">
-        <v>0.9842982992287466</v>
+        <v>0.9985847516759666</v>
       </c>
       <c r="F23">
-        <v>0.9889808063047092</v>
+        <v>1.003348321439102</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03184171985598</v>
+        <v>1.039866370436351</v>
       </c>
       <c r="J23">
-        <v>0.9972026928355527</v>
+        <v>1.011769702559816</v>
       </c>
       <c r="K23">
-        <v>1.006461242689802</v>
+        <v>1.022667396740894</v>
       </c>
       <c r="L23">
-        <v>0.9998671689660897</v>
+        <v>1.013870834243545</v>
       </c>
       <c r="M23">
-        <v>1.004455806701923</v>
+        <v>1.01854245695204</v>
       </c>
       <c r="N23">
-        <v>0.9986188350401268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007181437640801</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.027157331856952</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9804007816526644</v>
+        <v>0.9889498873124659</v>
       </c>
       <c r="D24">
-        <v>1.002226251801681</v>
+        <v>1.012789501206726</v>
       </c>
       <c r="E24">
-        <v>0.9969910695801955</v>
+        <v>1.005345252515082</v>
       </c>
       <c r="F24">
-        <v>1.002340418960957</v>
+        <v>1.010776689006953</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036346107527555</v>
+        <v>1.041662903453926</v>
       </c>
       <c r="J24">
-        <v>1.00867473561526</v>
+        <v>1.016880039314962</v>
       </c>
       <c r="K24">
-        <v>1.016214384433208</v>
+        <v>1.026595680728102</v>
       </c>
       <c r="L24">
-        <v>1.011071232260156</v>
+        <v>1.019279145295024</v>
       </c>
       <c r="M24">
-        <v>1.016326558502005</v>
+        <v>1.024617160553004</v>
       </c>
       <c r="N24">
-        <v>1.010107169436443</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008963185180449</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.029927293006951</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9963895531036079</v>
+        <v>0.9979664027428959</v>
       </c>
       <c r="D25">
-        <v>1.014333115679531</v>
+        <v>1.01863985833636</v>
       </c>
       <c r="E25">
-        <v>1.010725378675279</v>
+        <v>1.012902225926595</v>
       </c>
       <c r="F25">
-        <v>1.016800505323741</v>
+        <v>1.019077802724092</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04115254546664</v>
+        <v>1.043620262681751</v>
       </c>
       <c r="J25">
-        <v>1.021039037113775</v>
+        <v>1.022562399900245</v>
       </c>
       <c r="K25">
-        <v>1.026712929714968</v>
+        <v>1.030955544991721</v>
       </c>
       <c r="L25">
-        <v>1.023159447647909</v>
+        <v>1.025303499524167</v>
       </c>
       <c r="M25">
-        <v>1.02914349543365</v>
+        <v>1.031387006969077</v>
       </c>
       <c r="N25">
-        <v>1.022489029661291</v>
+        <v>1.010942803880124</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.033007094529792</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_30/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004834867060664</v>
+        <v>1.004882474503231</v>
       </c>
       <c r="D2">
-        <v>1.023092951351381</v>
+        <v>1.022748686033562</v>
       </c>
       <c r="E2">
-        <v>1.018680205256318</v>
+        <v>1.018741697566513</v>
       </c>
       <c r="F2">
-        <v>1.02542724073966</v>
+        <v>1.025469329847711</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045061984953058</v>
+        <v>1.04495790643909</v>
       </c>
       <c r="J2">
-        <v>1.026871923515933</v>
+        <v>1.026918125874409</v>
       </c>
       <c r="K2">
-        <v>1.034239672936065</v>
+        <v>1.033899937997425</v>
       </c>
       <c r="L2">
-        <v>1.029885287721717</v>
+        <v>1.029945962403887</v>
       </c>
       <c r="M2">
-        <v>1.03654334464595</v>
+        <v>1.0365848832956</v>
       </c>
       <c r="N2">
-        <v>1.012437058523689</v>
+        <v>1.014038280088088</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.0352806510711</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035049239205465</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021025092912077</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009698296546437</v>
+        <v>1.009435606086105</v>
       </c>
       <c r="D3">
-        <v>1.026265258523746</v>
+        <v>1.025596358358662</v>
       </c>
       <c r="E3">
-        <v>1.02278732877111</v>
+        <v>1.022575000594</v>
       </c>
       <c r="F3">
-        <v>1.029937394935439</v>
+        <v>1.029706417407861</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046069909166171</v>
+        <v>1.045821353834119</v>
       </c>
       <c r="J3">
-        <v>1.029928023001844</v>
+        <v>1.029672310691318</v>
       </c>
       <c r="K3">
-        <v>1.036572748164442</v>
+        <v>1.035911878057958</v>
       </c>
       <c r="L3">
-        <v>1.033136712889628</v>
+        <v>1.032926953839409</v>
       </c>
       <c r="M3">
-        <v>1.040201031372291</v>
+        <v>1.039972800786836</v>
       </c>
       <c r="N3">
-        <v>1.013498987691049</v>
+        <v>1.0147976043139</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036927679425168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036468912625367</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021466931161195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012781471275406</v>
+        <v>1.012324924768312</v>
       </c>
       <c r="D4">
-        <v>1.028279963664572</v>
+        <v>1.027407056544502</v>
       </c>
       <c r="E4">
-        <v>1.025397034411884</v>
+        <v>1.025013479706268</v>
       </c>
       <c r="F4">
-        <v>1.032802794446779</v>
+        <v>1.032401214260413</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046699057676902</v>
+        <v>1.046359657059913</v>
       </c>
       <c r="J4">
-        <v>1.031863781881453</v>
+        <v>1.031418527142703</v>
       </c>
       <c r="K4">
-        <v>1.038048647195377</v>
+        <v>1.037185583408912</v>
       </c>
       <c r="L4">
-        <v>1.035198305842183</v>
+        <v>1.034819103776182</v>
       </c>
       <c r="M4">
-        <v>1.042520804185453</v>
+        <v>1.042123701200462</v>
       </c>
       <c r="N4">
-        <v>1.014171183925957</v>
+        <v>1.015278829333721</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037972174349498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037370516857127</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021744148412957</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014067703878046</v>
+        <v>1.013530806668039</v>
       </c>
       <c r="D5">
-        <v>1.029123559161227</v>
+        <v>1.028165907450837</v>
       </c>
       <c r="E5">
-        <v>1.02648753142931</v>
+        <v>1.026032960853318</v>
       </c>
       <c r="F5">
-        <v>1.033999590103668</v>
+        <v>1.033527290016577</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.04696080215401</v>
+        <v>1.046583621737539</v>
       </c>
       <c r="J5">
-        <v>1.032672558740967</v>
+        <v>1.032148536682324</v>
       </c>
       <c r="K5">
-        <v>1.038666632426907</v>
+        <v>1.037719490459629</v>
       </c>
       <c r="L5">
-        <v>1.036059591895809</v>
+        <v>1.035610038532735</v>
       </c>
       <c r="M5">
-        <v>1.04348952176328</v>
+        <v>1.043022342150085</v>
       </c>
       <c r="N5">
-        <v>1.014452503272538</v>
+        <v>1.015480392030357</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038416331164258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037755933065798</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021860266518064</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014288612812446</v>
+        <v>1.013737801487739</v>
       </c>
       <c r="D6">
-        <v>1.029271280781257</v>
+        <v>1.028299037169744</v>
       </c>
       <c r="E6">
-        <v>1.02667537970906</v>
+        <v>1.026208493053206</v>
       </c>
       <c r="F6">
-        <v>1.034205188593449</v>
+        <v>1.033720630467131</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047007660973204</v>
+        <v>1.046623936315989</v>
       </c>
       <c r="J6">
-        <v>1.032813451584368</v>
+        <v>1.032275779870892</v>
       </c>
       <c r="K6">
-        <v>1.038776456607211</v>
+        <v>1.037814833660418</v>
       </c>
       <c r="L6">
-        <v>1.036208967909939</v>
+        <v>1.035747210107006</v>
       </c>
       <c r="M6">
-        <v>1.043656844436238</v>
+        <v>1.043177514757196</v>
       </c>
       <c r="N6">
-        <v>1.014502212805733</v>
+        <v>1.01551605592119</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038502748910437</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037832980774148</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021881601524472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012814339366625</v>
+        <v>1.012367075447753</v>
       </c>
       <c r="D7">
-        <v>1.028308995496</v>
+        <v>1.027442178196113</v>
       </c>
       <c r="E7">
-        <v>1.025426191346804</v>
+        <v>1.025051187698784</v>
       </c>
       <c r="F7">
-        <v>1.03283329306148</v>
+        <v>1.032440194734776</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046711268062995</v>
+        <v>1.046374979082647</v>
       </c>
       <c r="J7">
-        <v>1.031889864645521</v>
+        <v>1.031453657769395</v>
       </c>
       <c r="K7">
-        <v>1.03807446107444</v>
+        <v>1.037217414423869</v>
       </c>
       <c r="L7">
-        <v>1.035224230261188</v>
+        <v>1.034853480451172</v>
       </c>
       <c r="M7">
-        <v>1.042548088916619</v>
+        <v>1.042159371404372</v>
       </c>
       <c r="N7">
-        <v>1.014182193801473</v>
+        <v>1.015316374613837</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.038010586621521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.037415183538399</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021753589327406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006511821668742</v>
+        <v>1.006487717585326</v>
       </c>
       <c r="D8">
-        <v>1.024195317931848</v>
+        <v>1.023764812801824</v>
       </c>
       <c r="E8">
-        <v>1.020096841599267</v>
+        <v>1.020096410550116</v>
       </c>
       <c r="F8">
-        <v>1.026981061464208</v>
+        <v>1.026961251198047</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045418421189195</v>
+        <v>1.045277464004173</v>
       </c>
       <c r="J8">
-        <v>1.027932801477546</v>
+        <v>1.027909384303114</v>
       </c>
       <c r="K8">
-        <v>1.035057226232539</v>
+        <v>1.034632216182466</v>
       </c>
       <c r="L8">
-        <v>1.03101129917778</v>
+        <v>1.031010873683171</v>
       </c>
       <c r="M8">
-        <v>1.037807550833246</v>
+        <v>1.037787991594938</v>
       </c>
       <c r="N8">
-        <v>1.01280833857837</v>
+        <v>1.014393964457539</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.035881732406534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035592285873657</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021191076361742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9948640995357529</v>
+        <v>0.9956081409614859</v>
       </c>
       <c r="D9">
-        <v>1.016612687330563</v>
+        <v>1.016975838060513</v>
       </c>
       <c r="E9">
-        <v>1.010295472102155</v>
+        <v>1.010972051047471</v>
       </c>
       <c r="F9">
-        <v>1.016217079291261</v>
+        <v>1.016873568073011</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042943872661306</v>
+        <v>1.043156228289455</v>
       </c>
       <c r="J9">
-        <v>1.020599532424475</v>
+        <v>1.021316946048551</v>
       </c>
       <c r="K9">
-        <v>1.029441864964512</v>
+        <v>1.029799369953763</v>
       </c>
       <c r="L9">
-        <v>1.023223692030325</v>
+        <v>1.023889587706139</v>
       </c>
       <c r="M9">
-        <v>1.02905241313442</v>
+        <v>1.029698689390385</v>
       </c>
       <c r="N9">
-        <v>1.010255777342667</v>
+        <v>1.012583926673419</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.031908055116991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.032171649087353</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020114222589822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9867155354447024</v>
+        <v>0.9880720760489264</v>
       </c>
       <c r="D10">
-        <v>1.011337035469097</v>
+        <v>1.012307804864071</v>
       </c>
       <c r="E10">
-        <v>1.003476765026869</v>
+        <v>1.004693973212921</v>
       </c>
       <c r="F10">
-        <v>1.008725277524791</v>
+        <v>1.009923099993408</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041165959775775</v>
+        <v>1.041650967507076</v>
       </c>
       <c r="J10">
-        <v>1.015466318766635</v>
+        <v>1.016767065684411</v>
       </c>
       <c r="K10">
-        <v>1.025504569409107</v>
+        <v>1.026458337883831</v>
       </c>
       <c r="L10">
-        <v>1.017783527873599</v>
+        <v>1.018978990583443</v>
       </c>
       <c r="M10">
-        <v>1.022938761384076</v>
+        <v>1.024115471738153</v>
       </c>
       <c r="N10">
-        <v>1.008468294475485</v>
+        <v>1.011448775146417</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.029141028635845</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.029827916699273</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019361296307093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9831061208615444</v>
+        <v>0.9848286391740845</v>
       </c>
       <c r="D11">
-        <v>1.009016903334384</v>
+        <v>1.010326365684872</v>
       </c>
       <c r="E11">
-        <v>1.000468391612923</v>
+        <v>1.002012470499456</v>
       </c>
       <c r="F11">
-        <v>1.005417062600325</v>
+        <v>1.006942604502472</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04037451529121</v>
+        <v>1.041015521782555</v>
       </c>
       <c r="J11">
-        <v>1.013198993704514</v>
+        <v>1.014846473816597</v>
       </c>
       <c r="K11">
-        <v>1.023770754129997</v>
+        <v>1.025056134421777</v>
       </c>
       <c r="L11">
-        <v>1.015381480156748</v>
+        <v>1.016896534106932</v>
       </c>
       <c r="M11">
-        <v>1.02023753903596</v>
+        <v>1.021734770460825</v>
       </c>
       <c r="N11">
-        <v>1.007681620647228</v>
+        <v>1.011157727245383</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.027948261043676</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.028872826539091</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019051025425871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9817375168270923</v>
+        <v>0.9836087353080958</v>
       </c>
       <c r="D12">
-        <v>1.008133138189298</v>
+        <v>1.009578475788737</v>
       </c>
       <c r="E12">
-        <v>0.9993280240256174</v>
+        <v>1.001005388715418</v>
       </c>
       <c r="F12">
-        <v>1.00416405447263</v>
+        <v>1.0058233445637</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040069025562539</v>
+        <v>1.040773158300018</v>
       </c>
       <c r="J12">
-        <v>1.012335404901029</v>
+        <v>1.014123375989295</v>
       </c>
       <c r="K12">
-        <v>1.023106161474595</v>
+        <v>1.024524439650567</v>
       </c>
       <c r="L12">
-        <v>1.014468109367939</v>
+        <v>1.016113352379345</v>
       </c>
       <c r="M12">
-        <v>1.019211910240889</v>
+        <v>1.020839822464032</v>
       </c>
       <c r="N12">
-        <v>1.007380294528804</v>
+        <v>1.011063767898827</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.027478363898897</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.028496903160345</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018932455307429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9820295250008148</v>
+        <v>0.9838686314459294</v>
       </c>
       <c r="D13">
-        <v>1.008320623733365</v>
+        <v>1.009736663475425</v>
       </c>
       <c r="E13">
-        <v>0.999571020389855</v>
+        <v>1.001219593710969</v>
       </c>
       <c r="F13">
-        <v>1.004431284907336</v>
+        <v>1.00606167279806</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040133530687159</v>
+        <v>1.04082405776695</v>
       </c>
       <c r="J13">
-        <v>1.012518908955855</v>
+        <v>1.014276562814433</v>
       </c>
       <c r="K13">
-        <v>1.023246626694008</v>
+        <v>1.024636256209194</v>
       </c>
       <c r="L13">
-        <v>1.01466238203581</v>
+        <v>1.016279509956261</v>
       </c>
       <c r="M13">
-        <v>1.019430327691975</v>
+        <v>1.021030007930369</v>
       </c>
       <c r="N13">
-        <v>1.007443992764501</v>
+        <v>1.011082429365314</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.027575161402292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.02857320229398</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018957131986183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9829923438249654</v>
+        <v>0.9847270457293005</v>
       </c>
       <c r="D14">
-        <v>1.008942971684161</v>
+        <v>1.010263588217695</v>
       </c>
       <c r="E14">
-        <v>1.000373453109933</v>
+        <v>1.001928448582723</v>
       </c>
       <c r="F14">
-        <v>1.005312845443716</v>
+        <v>1.006849337118377</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040348832766138</v>
+        <v>1.040995023090241</v>
       </c>
       <c r="J14">
-        <v>1.013126879169566</v>
+        <v>1.014785879962007</v>
       </c>
       <c r="K14">
-        <v>1.023714934873299</v>
+        <v>1.025011228129613</v>
       </c>
       <c r="L14">
-        <v>1.015305289707355</v>
+        <v>1.016831009843824</v>
       </c>
       <c r="M14">
-        <v>1.020152098333007</v>
+        <v>1.021660031653105</v>
       </c>
       <c r="N14">
-        <v>1.007656317812998</v>
+        <v>1.011149296110894</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.027907715896411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.028839894968408</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019040900159038</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9835879486626171</v>
+        <v>0.9852592566557765</v>
       </c>
       <c r="D15">
-        <v>1.009330148056444</v>
+        <v>1.010592669499438</v>
       </c>
       <c r="E15">
-        <v>1.00087052893327</v>
+        <v>1.002368739473225</v>
       </c>
       <c r="F15">
-        <v>1.005858474287495</v>
+        <v>1.007338014527831</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040483288433835</v>
+        <v>1.041102494552617</v>
       </c>
       <c r="J15">
-        <v>1.013504463833623</v>
+        <v>1.015103502873803</v>
       </c>
       <c r="K15">
-        <v>1.024007268443595</v>
+        <v>1.02524671711553</v>
       </c>
       <c r="L15">
-        <v>1.015704210585327</v>
+        <v>1.017174442639526</v>
       </c>
       <c r="M15">
-        <v>1.020599429275944</v>
+        <v>1.022051694714685</v>
       </c>
       <c r="N15">
-        <v>1.007788831949356</v>
+        <v>1.011194247182446</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.028120337852654</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.029012888312123</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019094034600549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9869920103905101</v>
+        <v>0.9883215909980848</v>
       </c>
       <c r="D16">
-        <v>1.011532529763786</v>
+        <v>1.012478376973119</v>
       </c>
       <c r="E16">
-        <v>1.003711490298125</v>
+        <v>1.004904517252833</v>
       </c>
       <c r="F16">
-        <v>1.008979524862694</v>
+        <v>1.010153175951846</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041239177248752</v>
+        <v>1.041712400350387</v>
       </c>
       <c r="J16">
-        <v>1.015652932922287</v>
+        <v>1.016928045628476</v>
       </c>
       <c r="K16">
-        <v>1.025660561105605</v>
+        <v>1.026589900126211</v>
       </c>
       <c r="L16">
-        <v>1.017977572685055</v>
+        <v>1.019149360985848</v>
       </c>
       <c r="M16">
-        <v>1.0231523149356</v>
+        <v>1.024305353421434</v>
       </c>
       <c r="N16">
-        <v>1.008538627212344</v>
+        <v>1.011484198010858</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.029292485076045</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.029966060582007</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019394703018649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9890989319257608</v>
+        <v>0.9902364962627459</v>
       </c>
       <c r="D17">
-        <v>1.012897638336913</v>
+        <v>1.013661924123229</v>
       </c>
       <c r="E17">
-        <v>1.005472497858045</v>
+        <v>1.006494715642466</v>
       </c>
       <c r="F17">
-        <v>1.010913953571508</v>
+        <v>1.011916553803353</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041704144820114</v>
+        <v>1.042094414621822</v>
       </c>
       <c r="J17">
-        <v>1.016982564986894</v>
+        <v>1.018075111843171</v>
       </c>
       <c r="K17">
-        <v>1.026683242271841</v>
+        <v>1.027434576876832</v>
       </c>
       <c r="L17">
-        <v>1.01938524994999</v>
+        <v>1.020389819262867</v>
       </c>
       <c r="M17">
-        <v>1.02473328998801</v>
+        <v>1.025718819699816</v>
       </c>
       <c r="N17">
-        <v>1.009002562293539</v>
+        <v>1.011703969309422</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.030018173819885</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.030566131296969</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019584375608231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9903060009081195</v>
+        <v>0.9913412988444228</v>
       </c>
       <c r="D18">
-        <v>1.013675016463426</v>
+        <v>1.014340880013304</v>
       </c>
       <c r="E18">
-        <v>1.006481093057632</v>
+        <v>1.007412632232825</v>
       </c>
       <c r="F18">
-        <v>1.012022971091097</v>
+        <v>1.012934786455399</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04196555798839</v>
+        <v>1.042311250246534</v>
       </c>
       <c r="J18">
-        <v>1.017740305349753</v>
+        <v>1.018735460192737</v>
       </c>
       <c r="K18">
-        <v>1.027261803663854</v>
+        <v>1.027916578950786</v>
       </c>
       <c r="L18">
-        <v>1.020188884362104</v>
+        <v>1.021104629048242</v>
       </c>
       <c r="M18">
-        <v>1.025637350109294</v>
+        <v>1.026533922349743</v>
       </c>
       <c r="N18">
-        <v>1.009265246316193</v>
+        <v>1.011843063076467</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.030415507242767</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.030894058078553</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019691561956885</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9907251646812705</v>
+        <v>0.9917260250099849</v>
       </c>
       <c r="D19">
-        <v>1.013949260522201</v>
+        <v>1.014581782202037</v>
       </c>
       <c r="E19">
-        <v>1.006832427474633</v>
+        <v>1.007733436916916</v>
       </c>
       <c r="F19">
-        <v>1.012408366680956</v>
+        <v>1.013289633584299</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042059212394619</v>
+        <v>1.042389769474539</v>
       </c>
       <c r="J19">
-        <v>1.018006495755546</v>
+        <v>1.018968819989749</v>
       </c>
       <c r="K19">
-        <v>1.027468202539601</v>
+        <v>1.028090254352666</v>
       </c>
       <c r="L19">
-        <v>1.020470341022647</v>
+        <v>1.021356168550291</v>
       </c>
       <c r="M19">
-        <v>1.025952884986149</v>
+        <v>1.026819512057113</v>
       </c>
       <c r="N19">
-        <v>1.009358828840559</v>
+        <v>1.01189625899003</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.030567883898384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.031023915667982</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019731216248684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.988872979571856</v>
+        <v>0.990030383690195</v>
       </c>
       <c r="D20">
-        <v>1.012750752134592</v>
+        <v>1.013533951907964</v>
       </c>
       <c r="E20">
-        <v>1.005283451861129</v>
+        <v>1.006323295896257</v>
       </c>
       <c r="F20">
-        <v>1.010706388559535</v>
+        <v>1.011726634273557</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041654084854528</v>
+        <v>1.042052975104804</v>
       </c>
       <c r="J20">
-        <v>1.016839671642049</v>
+        <v>1.017951101533107</v>
       </c>
       <c r="K20">
-        <v>1.026573040052517</v>
+        <v>1.027342925647685</v>
       </c>
       <c r="L20">
-        <v>1.019234030015447</v>
+        <v>1.02025586163333</v>
       </c>
       <c r="M20">
-        <v>1.024563555709441</v>
+        <v>1.025566372080544</v>
       </c>
       <c r="N20">
-        <v>1.008952576762255</v>
+        <v>1.011678549261362</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.029938909687964</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.030499855505204</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.01956367454296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9827222973995435</v>
+        <v>0.98451681246567</v>
       </c>
       <c r="D21">
-        <v>1.008774112144785</v>
+        <v>1.010144314393346</v>
       </c>
       <c r="E21">
-        <v>1.000149711907129</v>
+        <v>1.001759435076241</v>
       </c>
       <c r="F21">
-        <v>1.005065777475254</v>
+        <v>1.006657144227472</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040292669962571</v>
+        <v>1.040962937444678</v>
       </c>
       <c r="J21">
-        <v>1.012960584711863</v>
+        <v>1.014676452341648</v>
       </c>
       <c r="K21">
-        <v>1.023591141349391</v>
+        <v>1.024936014980445</v>
       </c>
       <c r="L21">
-        <v>1.015128248505787</v>
+        <v>1.016707550913145</v>
       </c>
       <c r="M21">
-        <v>1.019951808537083</v>
+        <v>1.021513483110074</v>
       </c>
       <c r="N21">
-        <v>1.007600099904632</v>
+        <v>1.011205222065343</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.027833833611169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.028801664893697</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019027771965051</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9787428317256732</v>
+        <v>0.980954392541405</v>
       </c>
       <c r="D22">
-        <v>1.006200940277221</v>
+        <v>1.007955321187696</v>
       </c>
       <c r="E22">
-        <v>0.9968355102973719</v>
+        <v>0.998818786315483</v>
       </c>
       <c r="F22">
-        <v>1.001425264347645</v>
+        <v>1.003391855242542</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039397184972445</v>
+        <v>1.040245681114463</v>
       </c>
       <c r="J22">
-        <v>1.010445230599681</v>
+        <v>1.012553889479168</v>
       </c>
       <c r="K22">
-        <v>1.021650548145885</v>
+        <v>1.023370811960112</v>
       </c>
       <c r="L22">
-        <v>1.012469918089685</v>
+        <v>1.014413679653779</v>
       </c>
       <c r="M22">
-        <v>1.016968539250387</v>
+        <v>1.018896416955429</v>
       </c>
       <c r="N22">
-        <v>1.006720474700243</v>
+        <v>1.010885318891827</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.026448096704204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.027680070821036</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018675550584553</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9808462331826718</v>
+        <v>0.9828167979899963</v>
       </c>
       <c r="D23">
-        <v>1.007553485209619</v>
+        <v>1.009089211112107</v>
       </c>
       <c r="E23">
-        <v>0.9985847516759666</v>
+        <v>1.000351341817743</v>
       </c>
       <c r="F23">
-        <v>1.003348321439102</v>
+        <v>1.005097175991276</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039866370436351</v>
+        <v>1.040612724989687</v>
       </c>
       <c r="J23">
-        <v>1.011769702559816</v>
+        <v>1.013651418816473</v>
       </c>
       <c r="K23">
-        <v>1.022667396740894</v>
+        <v>1.02417404267153</v>
       </c>
       <c r="L23">
-        <v>1.013870834243545</v>
+        <v>1.015603191571022</v>
       </c>
       <c r="M23">
-        <v>1.01854245695204</v>
+        <v>1.020257841058964</v>
       </c>
       <c r="N23">
-        <v>1.007181437640801</v>
+        <v>1.011004440033812</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.027157331856952</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.028237325131466</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018853328654752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9889498873124659</v>
+        <v>0.9901010890971864</v>
       </c>
       <c r="D24">
-        <v>1.012789501206726</v>
+        <v>1.013566522993003</v>
       </c>
       <c r="E24">
-        <v>1.005345252515082</v>
+        <v>1.006379689490397</v>
       </c>
       <c r="F24">
-        <v>1.010776689006953</v>
+        <v>1.011791488249693</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041662903453926</v>
+        <v>1.042059209806249</v>
       </c>
       <c r="J24">
-        <v>1.016880039314962</v>
+        <v>1.017985587300386</v>
       </c>
       <c r="K24">
-        <v>1.026595680728102</v>
+        <v>1.027359511525946</v>
       </c>
       <c r="L24">
-        <v>1.019279145295024</v>
+        <v>1.020295689301831</v>
       </c>
       <c r="M24">
-        <v>1.024617160553004</v>
+        <v>1.025614648766914</v>
       </c>
       <c r="N24">
-        <v>1.008963185180449</v>
+        <v>1.011681428673689</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.029927293006951</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.030481297880243</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019564790484716</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9979664027428959</v>
+        <v>0.9984870804159</v>
       </c>
       <c r="D25">
-        <v>1.01863985833636</v>
+        <v>1.018778532487942</v>
       </c>
       <c r="E25">
-        <v>1.012902225926595</v>
+        <v>1.013381458447198</v>
       </c>
       <c r="F25">
-        <v>1.019077802724092</v>
+        <v>1.019537030673908</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043620262681751</v>
+        <v>1.043731843272682</v>
       </c>
       <c r="J25">
-        <v>1.022562399900245</v>
+        <v>1.023065467833967</v>
       </c>
       <c r="K25">
-        <v>1.030955544991721</v>
+        <v>1.031092165735717</v>
       </c>
       <c r="L25">
-        <v>1.025303499524167</v>
+        <v>1.025775536234084</v>
       </c>
       <c r="M25">
-        <v>1.031387006969077</v>
+        <v>1.031839445070989</v>
       </c>
       <c r="N25">
-        <v>1.010942803880124</v>
+        <v>1.013035503814368</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.033007094529792</v>
+        <v>1.033117296224679</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020406291553555</v>
       </c>
     </row>
   </sheetData>
